--- a/biology/Zoologie/Cyriocosmus_perezmilesi/Cyriocosmus_perezmilesi.xlsx
+++ b/biology/Zoologie/Cyriocosmus_perezmilesi/Cyriocosmus_perezmilesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyriocosmus perezmilesi, la Mygale naine bolivienne, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1]. Elle était connue avant 2007 sous le nom de « Cyriocosmus sp. Bolivia ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyriocosmus perezmilesi, la Mygale naine bolivienne, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae. Elle était connue avant 2007 sous le nom de « Cyriocosmus sp. Bolivia ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bolivie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dos est bleuté avec une tache dorée, les pattes sont bleutées.
-Le mâle holotype mesure 20,0 mm et la femelle paratype 25,0 mm[2].
+Le mâle holotype mesure 20,0 mm et la femelle paratype 25,0 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces de ce genre, son alimentation est composée exclusivement d'insectes qu'elle attrape manuellement. Il n'est pas rare de voir cette mygale s'attaquer à des proies plus grosses qu'elle.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fernando Pérez-Miles[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fernando Pérez-Miles.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 </t>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Kaderka, 2007 : Cyriocosmus perezmilesi sp. n. from Bolivia (Araneae : Theraphosidae : Theraphosinae). Revista Iberica de Aracnologia, vol. 14, p. 63-68 (texte intégral).</t>
         </is>
